--- a/results/I3_N5_M3_T45_C150_DepLowerLeft_s0_P4_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepLowerLeft_s0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>689.992251111879</v>
+        <v>1330.329728494957</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.6922511118804</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.037400597647794</v>
+        <v>11.34615423506322</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.037400597647794</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.4399999999986</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>434.8600000000001</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -769,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -813,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -824,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -885,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.77588400245558</v>
+        <v>19.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>23.2375891022531</v>
       </c>
     </row>
     <row r="5">
@@ -909,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.435603481021957</v>
+        <v>35.91835541786301</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>33.18449368032031</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.90513640446556</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.13729949371544</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37.56439651897804</v>
+        <v>41.34615423506322</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,15 +1031,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.3950000000002</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.475</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>167.32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>168.77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>166.265</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.4</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0650000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.7150000000008</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125.2100000000008</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6300000000008</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>156.56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>153.25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>156.73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>155.9399999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000000001</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>77.21999999999952</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>87.34499999999935</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>91.47999999999934</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>91.85999999999933</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>90.41499999999934</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>122.0650000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>116.7150000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>125.2100000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>122.6300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>145.3950000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>167.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>168.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>166.265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>156.56</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>153.25</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>161.41</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>156.73</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>155.9399999999993</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.47499999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>18.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.26499999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1684,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.560000000000002</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -1695,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>3.25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.41</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1717,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.72999999999999</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1728,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.939999999999344</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1786,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1797,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1808,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1819,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1830,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1841,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1852,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1863,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1874,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1885,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1896,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1918,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1929,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2053,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,10 +2320,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2091,10 +2331,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2102,10 +2342,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2113,10 +2353,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2124,10 +2364,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2135,10 +2375,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2146,10 +2386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2157,10 +2397,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2168,12 +2408,78 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
